--- a/Json Error list.xlsx
+++ b/Json Error list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\文件\Code\Python\rag\Agentic-RAG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8ED7F1B-472E-4390-8E7F-849988D521DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB4633-1886-436E-BEB8-56CF129B2DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2535" windowWidth="29040" windowHeight="15720" xr2:uid="{5B57644E-B217-4734-87F0-C65E7EAE4316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>['What is the signal word used for the product?']</t>
   </si>
@@ -74,6 +74,18 @@
   <si>
     <t>['{"answer": "I don\'t know", "source": N/A}\n']</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['{"answer": Stable when stored and used properly", "source": Stability and reactivity}\n']</t>
+  </si>
+  <si>
+    <t>['Is the product stable under certain conditions, and are there any potential decomposition products?']</t>
+  </si>
+  <si>
+    <t>['{"answer": "Yes, the product is stable when stored and used properly.", "source": "Stability and reactivity - 10.2. Chemical stability"} \n\n{"answer": "No dangerous decomposition products are known.", "source": "Stability and reactivity - 10.6. Hazardous decomposition products"}\n']</t>
+  </si>
+  <si>
+    <t>[JSONDecodeError('Extra data: line 3 column 1 (char 139)')]</t>
   </si>
 </sst>
 </file>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D28D8-B0A7-439C-B12E-AB07B801D2D4}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -525,6 +537,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Json Error list.xlsx
+++ b/Json Error list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\文件\Code\Python\rag\Agentic-RAG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB4633-1886-436E-BEB8-56CF129B2DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947A8D4-64C5-42B4-9389-C0B78F6857C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2535" windowWidth="29040" windowHeight="15720" xr2:uid="{5B57644E-B217-4734-87F0-C65E7EAE4316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>['What is the signal word used for the product?']</t>
   </si>
@@ -44,15 +44,6 @@
     <t>[JSONDecodeError('Expecting value: line 1 column 12 (char 11)')]</t>
   </si>
   <si>
-    <t>['What are the recommended engineering controls, personal protective equipment (PPE), and respiratory protection for handling the product?']</t>
-  </si>
-  <si>
-    <t>['{"answer": "None Required, None Required, Personal respiratory protection should be employed when exposure cannot be adequately controlled through ventilation.", "source": "Section 8: Exposure Controls/Personal Protection, Section 7: Handling and Storage, Section 9: Physical and Chemical Properties"}}\n']</t>
-  </si>
-  <si>
-    <t>[JSONDecodeError('Extra data: line 1 column 302 (char 301)')]</t>
-  </si>
-  <si>
     <t>['What is the shelf life of the product?']</t>
   </si>
   <si>
@@ -62,9 +53,6 @@
     <t>['What is the odor of the product?']</t>
   </si>
   <si>
-    <t>['{"answer": "I dont know", "source": N/A}\n']</t>
-  </si>
-  <si>
     <t>[JSONDecodeError('Expecting value: line 1 column 37 (char 36)')]</t>
   </si>
   <si>
@@ -76,16 +64,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>['Is the product stable under certain conditions, and are there any potential decomposition products?']</t>
+  </si>
+  <si>
+    <t>['{"answer": "Yes, the product is stable when stored and used properly.", "source": "Stability and reactivity - 10.2. Chemical stability"} \n\n{"answer": "No dangerous decomposition products are known.", "source": "Stability and reactivity - 10.6. Hazardous decomposition products"}\n']</t>
+  </si>
+  <si>
+    <t>[JSONDecodeError('Extra data: line 3 column 1 (char 139)')]</t>
+  </si>
+  <si>
+    <t>['Who is the manufacturer of the product?']</t>
+  </si>
+  <si>
+    <t>['{"answer": Emergency Telephone Clift Industries, Inc.", "source": Product and Company Identification}\n']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Are there any special fire handling procedures required for the product?']</t>
+  </si>
+  <si>
     <t>['{"answer": Stable when stored and used properly", "source": Stability and reactivity}\n']</t>
-  </si>
-  <si>
-    <t>['Is the product stable under certain conditions, and are there any potential decomposition products?']</t>
-  </si>
-  <si>
-    <t>['{"answer": "Yes, the product is stable when stored and used properly.", "source": "Stability and reactivity - 10.2. Chemical stability"} \n\n{"answer": "No dangerous decomposition products are known.", "source": "Stability and reactivity - 10.6. Hazardous decomposition products"}\n']</t>
-  </si>
-  <si>
-    <t>[JSONDecodeError('Extra data: line 3 column 1 (char 139)')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[JSONDecodeError('Expecting value: line 1 column 12 (char 11)')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['{"answer": I dont know, "source": N/A}\n']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['{"answer": None required, "source": Special Fire Fighting Procedures}\n']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,16 +480,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D28D8-B0A7-439C-B12E-AB07B801D2D4}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="82" customWidth="1"/>
+    <col min="3" max="3" width="137.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -489,80 +500,94 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
